--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -17,16 +17,17 @@
     <sheet name="记忆_职业" sheetId="3" r:id="rId8"/>
     <sheet name="记忆_死因" sheetId="6" r:id="rId9"/>
     <sheet name="疾病" sheetId="10" r:id="rId10"/>
-    <sheet name="宿敌" sheetId="11" r:id="rId11"/>
+    <sheet name="其他种族交互" sheetId="11" r:id="rId11"/>
+    <sheet name="秘籍" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
-  <si>
-    <t>物理方向：————————</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+  <si>
+    <t>生理：————————</t>
   </si>
   <si>
     <t>强健</t>
@@ -41,7 +42,13 @@
     <t>力量+1 体质-1</t>
   </si>
   <si>
-    <t>法术方向：————————</t>
+    <t>秃头</t>
+  </si>
+  <si>
+    <t>暴击率+5%</t>
+  </si>
+  <si>
+    <t>魂魄：————————</t>
   </si>
   <si>
     <t>攻击方向：————————</t>
@@ -86,52 +93,79 @@
     <t>理智+1</t>
   </si>
   <si>
+    <t>通用方向：————————</t>
+  </si>
+  <si>
+    <t>强力召唤</t>
+  </si>
+  <si>
+    <t>增强随从</t>
+  </si>
+  <si>
+    <t>指挥官</t>
+  </si>
+  <si>
+    <t>坚忍</t>
+  </si>
+  <si>
+    <t>顽强</t>
+  </si>
+  <si>
+    <t>命不该绝</t>
+  </si>
+  <si>
+    <t>buff：命不该绝</t>
+  </si>
+  <si>
+    <t>濒死时，每轮回复生命+1（或其他效果）</t>
+  </si>
+  <si>
+    <t>曾经濒死1次</t>
+  </si>
+  <si>
+    <t>强力：————————</t>
+  </si>
+  <si>
+    <t>精通符咒</t>
+  </si>
+  <si>
+    <t>符咒效果+1</t>
+  </si>
+  <si>
+    <t>精通药理</t>
+  </si>
+  <si>
+    <t>丹药效果+1</t>
+  </si>
+  <si>
+    <t>精通：————————</t>
+  </si>
+  <si>
+    <t>精通潜伏</t>
+  </si>
+  <si>
+    <t>潜伏率+5%</t>
+  </si>
+  <si>
     <t>精通闪避</t>
   </si>
   <si>
     <t>闪避率+5%</t>
   </si>
   <si>
-    <t>通用方向：————————</t>
-  </si>
-  <si>
-    <t>强力召唤</t>
-  </si>
-  <si>
-    <t>增强随从</t>
-  </si>
-  <si>
-    <t>指挥官</t>
-  </si>
-  <si>
-    <t>坚忍</t>
-  </si>
-  <si>
-    <t>顽强</t>
-  </si>
-  <si>
-    <t>命不该绝</t>
-  </si>
-  <si>
-    <t>buff：命不该绝</t>
-  </si>
-  <si>
-    <t>濒死时，每轮回复生命+1（或其他效果）</t>
-  </si>
-  <si>
-    <t>曾经濒死1次</t>
-  </si>
-  <si>
-    <t>亲密方向：————————</t>
-  </si>
-  <si>
-    <t>与不同种族、阵营亲密</t>
-  </si>
-  <si>
-    <t>亲密动物、活尸等等</t>
-  </si>
-  <si>
-    <t>与不同种族、阵营伪装</t>
+    <t>精通重击</t>
+  </si>
+  <si>
+    <t>精通格挡</t>
+  </si>
+  <si>
+    <t>格挡率+5%</t>
+  </si>
+  <si>
+    <t>精通侦察</t>
+  </si>
+  <si>
+    <t>侦察率+5%</t>
   </si>
   <si>
     <t>怪物特质：————————</t>
@@ -177,18 +211,6 @@
   </si>
   <si>
     <t>最大体力</t>
-  </si>
-  <si>
-    <t>机警过人</t>
-  </si>
-  <si>
-    <t>侦查技能检定</t>
-  </si>
-  <si>
-    <t>精通潜伏</t>
-  </si>
-  <si>
-    <t>潜伏技能检定</t>
   </si>
   <si>
     <t>异乡人</t>
@@ -273,266 +295,6 @@
     <t>因饮食造成的伤害减半</t>
   </si>
   <si>
-    <t>独行侠</t>
-  </si>
-  <si>
-    <t>所有判定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队伍中人数最多为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>热脸</t>
-  </si>
-  <si>
-    <t>交涉技能检定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魅力大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11)</t>
-    </r>
-  </si>
-  <si>
-    <t>冷屁股</t>
-  </si>
-  <si>
-    <t>威吓技能检定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魅力小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>擅长盔甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>盔甲减值</t>
-  </si>
-  <si>
-    <t>穿戴轻型盔甲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>擅长盔甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有专长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>穿戴中型盔甲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>擅长盔甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>穿戴重型盔甲</t>
-  </si>
-  <si>
     <t>血统：收集血肉，搭建祭坛，向自己献祭，你将成为妖魔，这是堕落，还是升华？</t>
   </si>
   <si>
@@ -587,10 +349,13 @@
     <t>通用：对故乡的记忆将使你的理智+1</t>
   </si>
   <si>
+    <t>占用san值</t>
+  </si>
+  <si>
     <t>险峻群山</t>
   </si>
   <si>
-    <t>力量+</t>
+    <t>力量+1</t>
   </si>
   <si>
     <t>广阔草原</t>
@@ -599,7 +364,7 @@
     <t>高原</t>
   </si>
   <si>
-    <t>体质+</t>
+    <t>体质+1</t>
   </si>
   <si>
     <t>平原</t>
@@ -608,9 +373,6 @@
     <t>小桥流水</t>
   </si>
   <si>
-    <t>理智+</t>
-  </si>
-  <si>
     <t>职业：</t>
   </si>
   <si>
@@ -678,6 +440,27 @@
   </si>
   <si>
     <t>宿敌：建立人物时可以消耗10点天赋值，选择1个宿敌，对其攻防增加，获得其完整图鉴信息。之后可以通过杀死5只，10只，50只等达成成就的方式来得到新的宿敌，以及加深宿敌等级。</t>
+  </si>
+  <si>
+    <t>亲密：与不同种族、阵营亲密</t>
+  </si>
+  <si>
+    <t>亲密动物、活尸等等</t>
+  </si>
+  <si>
+    <t>伪装：与不同种族、阵营伪装</t>
+  </si>
+  <si>
+    <t>看秘籍，修炼</t>
+  </si>
+  <si>
+    <t>可以获得加值</t>
+  </si>
+  <si>
+    <t>一字电剑</t>
+  </si>
+  <si>
+    <t>使用武器时速度+1，伤害+1</t>
   </si>
 </sst>
 </file>
@@ -685,19 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +503,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -734,7 +517,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,98 +584,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -864,7 +601,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,37 +655,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,145 +751,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,6 +846,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1088,6 +879,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1099,6 +899,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,21 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1150,202 +946,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,10 +1475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1724,9 +1503,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1735,17 +1512,19 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="2"/>
@@ -1754,7 +1533,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -1771,60 +1550,60 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
@@ -1834,33 +1613,23 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="18" s="1" customFormat="1"/>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
@@ -1877,6 +1646,7 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1885,6 +1655,7 @@
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1893,12 +1664,14 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
@@ -1915,196 +1688,179 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="2" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
-      <c r="A38" s="2"/>
+    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="6:6">
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
       <c r="A47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
       <c r="A48" s="5" t="s">
@@ -2116,93 +1872,95 @@
       <c r="C48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
       <c r="A49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
       <c r="A50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
       <c r="A56" s="5" t="s">
@@ -2214,125 +1972,53 @@
       <c r="C56" s="7">
         <v>1</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="A57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
       <c r="A59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
       <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="7">
-        <v>-3</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2353,12 +2039,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2370,17 +2056,68 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2402,22 +2139,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2439,17 +2176,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2471,12 +2208,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2501,17 +2238,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -2627,17 +2364,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2649,66 +2386,90 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>113</v>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2721,76 +2482,81 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2813,36 +2579,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -25,147 +25,438 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
+  <si>
+    <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：难得——超凡——传奇</t>
+  </si>
+  <si>
+    <t>为了让特质的选择更有策略性，可能需要做图鉴、以及预示了下几层地牢的敌人特征等情报</t>
+  </si>
+  <si>
+    <t>评级：【1】 有好有坏 【2】 好处大于坏处1-3 【3】 益处4-6 【4】益处较高，小幅度改变游戏机制 【5】大幅度改变游戏机制，如不再腐败等</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
   <si>
     <t>生理：————————</t>
   </si>
   <si>
+    <t>肥胖</t>
+  </si>
+  <si>
+    <t>力量+1 体质-1</t>
+  </si>
+  <si>
+    <t>秃头</t>
+  </si>
+  <si>
+    <t>暴击率+5%</t>
+  </si>
+  <si>
     <t>强健</t>
   </si>
   <si>
     <t>力量+1 体质+1</t>
   </si>
   <si>
-    <t>肥胖</t>
-  </si>
-  <si>
-    <t>力量+1 体质-1</t>
-  </si>
-  <si>
-    <t>秃头</t>
-  </si>
-  <si>
-    <t>暴击率+5%</t>
-  </si>
-  <si>
-    <t>魂魄：————————</t>
+    <t>皮糙肉厚</t>
+  </si>
+  <si>
+    <t>物理防御+1</t>
+  </si>
+  <si>
+    <t>长跑健将</t>
+  </si>
+  <si>
+    <t>体质+1</t>
+  </si>
+  <si>
+    <t>生生不息</t>
+  </si>
+  <si>
+    <t>进入房间时，躯体的腐败速度减半</t>
+  </si>
+  <si>
+    <t>内循环</t>
+  </si>
+  <si>
+    <t>每3回合回血1</t>
+  </si>
+  <si>
+    <t>外循环</t>
+  </si>
+  <si>
+    <t>击杀躯壳时回血1</t>
+  </si>
+  <si>
+    <t>缩骨功</t>
+  </si>
+  <si>
+    <t>状态【困住】的持续时间-1</t>
+  </si>
+  <si>
+    <t>铁布衫</t>
+  </si>
+  <si>
+    <t>物理防御+3，不可升级</t>
+  </si>
+  <si>
+    <t>精神：————————</t>
+  </si>
+  <si>
+    <t>无痛觉</t>
+  </si>
+  <si>
+    <t>状态【剧痛】的影响-30%</t>
+  </si>
+  <si>
+    <t>安眠</t>
+  </si>
+  <si>
+    <t>状态【催眠】期间，每回合阴阳同时回血1，回清明度1</t>
+  </si>
+  <si>
+    <t>细致</t>
+  </si>
+  <si>
+    <t>潜行率+5% 失误率-10% 拆卸陷阱成功率+20%</t>
+  </si>
+  <si>
+    <t>警觉</t>
+  </si>
+  <si>
+    <t>侦察率+10%</t>
+  </si>
+  <si>
+    <t>苦行僧</t>
+  </si>
+  <si>
+    <t>理智+2</t>
+  </si>
+  <si>
+    <t>钢铁意志</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+  </si>
+  <si>
+    <t>清明度每失去10%，伤害+5%</t>
+  </si>
+  <si>
+    <t>月蚀</t>
+  </si>
+  <si>
+    <t>攻击时</t>
+  </si>
+  <si>
+    <t>闪现</t>
+  </si>
+  <si>
+    <t>魂魄出窍</t>
+  </si>
+  <si>
+    <t>阴影领域</t>
+  </si>
+  <si>
+    <t>群体光环 察觉率-10%</t>
   </si>
   <si>
     <t>攻击方向：————————</t>
   </si>
   <si>
+    <t>灵敏</t>
+  </si>
+  <si>
+    <t>闪避、暴击、潜行几率+5%</t>
+  </si>
+  <si>
+    <t>盲战</t>
+  </si>
+  <si>
+    <t>阴盛阳衰时，若你为躯壳，则所受debuff减半</t>
+  </si>
+  <si>
+    <t>伺机攻击</t>
+  </si>
+  <si>
+    <t>敌人离开或来到面前时，有几率额外攻击一次，最大5级，每级10%</t>
+  </si>
+  <si>
+    <t>顺势斩</t>
+  </si>
+  <si>
+    <t>击杀敌人时，立刻向该敌人身边敌人发动一次近战攻击，每回合1次</t>
+  </si>
+  <si>
+    <t>抵近射击</t>
+  </si>
+  <si>
+    <t>对面前敌人进行远程攻击时，命中率+10%，伤害+10%</t>
+  </si>
+  <si>
+    <t>震慑攻击</t>
+  </si>
+  <si>
+    <t>暴击时造成【眩晕】1回合</t>
+  </si>
+  <si>
+    <t>防御方向：————————</t>
+  </si>
+  <si>
+    <t>神志清醒</t>
+  </si>
+  <si>
+    <t>理智+1</t>
+  </si>
+  <si>
+    <t>寓守于攻</t>
+  </si>
+  <si>
+    <t>本回合尚未出手时，每受1点伤害，可以抵消这点伤害，在出手时-1伤害，上限为5</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>格挡成功时反击敌人1次</t>
+  </si>
+  <si>
+    <t>拨挡飞箭</t>
+  </si>
+  <si>
+    <t>对远程攻击闪避率+20%，伤害-10%</t>
+  </si>
+  <si>
+    <t>灵活移动</t>
+  </si>
+  <si>
+    <t>被敌人伺机攻击的概率-10%</t>
+  </si>
+  <si>
+    <t>如数奉还</t>
+  </si>
+  <si>
+    <t>闪避敌人远程攻击后，向此敌人反击，伤害与敌人应造成的伤害相同</t>
+  </si>
+  <si>
+    <t>抵抗腐蚀</t>
+  </si>
+  <si>
+    <t>状态【催眠】伤害-1，持续轮数-1</t>
+  </si>
+  <si>
+    <t>抵抗流血</t>
+  </si>
+  <si>
+    <t>状态【流血】伤害-1，持续轮数-1</t>
+  </si>
+  <si>
+    <t>抵抗燃烧</t>
+  </si>
+  <si>
+    <t>状态【燃烧】伤害-1，持续轮数-1</t>
+  </si>
+  <si>
+    <t>抵抗符咒</t>
+  </si>
+  <si>
+    <t>魔法伤害-10%</t>
+  </si>
+  <si>
+    <t>通用方向：————————</t>
+  </si>
+  <si>
+    <t>指挥官</t>
+  </si>
+  <si>
+    <t>随从随机3种基础属性+1</t>
+  </si>
+  <si>
+    <t>坚守阵地</t>
+  </si>
+  <si>
+    <t>不会被击退</t>
+  </si>
+  <si>
+    <t>列阵</t>
+  </si>
+  <si>
+    <t>随从数量每+1 防御+1</t>
+  </si>
+  <si>
+    <t>坚忍</t>
+  </si>
+  <si>
+    <t>清明度归零时剩余1点1次</t>
+  </si>
+  <si>
+    <t>顽强</t>
+  </si>
+  <si>
+    <t>生命值归零时剩余1点1次</t>
+  </si>
+  <si>
+    <t>命不该绝</t>
+  </si>
+  <si>
+    <t>濒死时，每轮回复生命+1（或其他效果  buff：命不该绝）</t>
+  </si>
+  <si>
+    <t>见多识广</t>
+  </si>
+  <si>
+    <t>每回合 清明度损失时少损失1点</t>
+  </si>
+  <si>
+    <t>天命之人</t>
+  </si>
+  <si>
+    <t>闪避、格挡、暴击、潜行 失败时可以再判定1次</t>
+  </si>
+  <si>
+    <t>勤俭节约</t>
+  </si>
+  <si>
+    <t>消耗品被使用后，有10%的概率不被消耗，每个物品仅能被节约1次</t>
+  </si>
+  <si>
+    <t>精通：————————</t>
+  </si>
+  <si>
     <t>精通先攻</t>
   </si>
   <si>
     <t>先攻+1</t>
   </si>
   <si>
-    <t>灵敏</t>
-  </si>
-  <si>
-    <t>闪避、暴击、潜行几率+5%</t>
-  </si>
-  <si>
-    <t>警觉</t>
-  </si>
-  <si>
-    <t>察觉几率+5%</t>
-  </si>
-  <si>
-    <t>盲战</t>
-  </si>
-  <si>
-    <t>阴盛阳衰时，若你为躯壳，则所受debuff减半</t>
-  </si>
-  <si>
-    <t>伺机攻击</t>
-  </si>
-  <si>
-    <t>敌人离开时，有几率额外攻击一次</t>
-  </si>
-  <si>
-    <t>防御方向：————————</t>
-  </si>
-  <si>
-    <t>神志清醒</t>
-  </si>
-  <si>
-    <t>理智+1</t>
-  </si>
-  <si>
-    <t>通用方向：————————</t>
-  </si>
-  <si>
-    <t>强力召唤</t>
-  </si>
-  <si>
-    <t>增强随从</t>
-  </si>
-  <si>
-    <t>指挥官</t>
-  </si>
-  <si>
-    <t>坚忍</t>
-  </si>
-  <si>
-    <t>顽强</t>
-  </si>
-  <si>
-    <t>命不该绝</t>
-  </si>
-  <si>
-    <t>buff：命不该绝</t>
-  </si>
-  <si>
-    <t>濒死时，每轮回复生命+1（或其他效果）</t>
-  </si>
-  <si>
-    <t>曾经濒死1次</t>
-  </si>
-  <si>
-    <t>强力：————————</t>
+    <t>精通潜伏</t>
+  </si>
+  <si>
+    <t>潜伏率+5%</t>
+  </si>
+  <si>
+    <t>精通闪避</t>
+  </si>
+  <si>
+    <t>闪避率+5%</t>
+  </si>
+  <si>
+    <t>精通重击</t>
+  </si>
+  <si>
+    <t>精通格挡</t>
+  </si>
+  <si>
+    <t>格挡率+5%</t>
+  </si>
+  <si>
+    <t>精通侦察</t>
+  </si>
+  <si>
+    <t>侦察率+5%</t>
+  </si>
+  <si>
+    <t>精通冲撞</t>
+  </si>
+  <si>
+    <t>攻击时，有10%几率击退，此击退无法触发借机攻击</t>
+  </si>
+  <si>
+    <t>精通缴械</t>
+  </si>
+  <si>
+    <t>攻击时，有10%几率缴械，使其获得【缴械】状态</t>
+  </si>
+  <si>
+    <t>精通背刺</t>
+  </si>
+  <si>
+    <t>偷袭时，伤害额外+10% 正常为200%</t>
+  </si>
+  <si>
+    <t>精通闷棍</t>
+  </si>
+  <si>
+    <t>偷袭时，造成【眩晕】1回合</t>
+  </si>
+  <si>
+    <t>精通肾击</t>
+  </si>
+  <si>
+    <t>偷袭时，造成【眩晕】1回合，【剧痛】5回合</t>
+  </si>
+  <si>
+    <t>精通割喉</t>
+  </si>
+  <si>
+    <t>偷袭时，造成【出血】，偷袭直接致死时，不会惊扰其他敌人</t>
   </si>
   <si>
     <t>精通符咒</t>
   </si>
   <si>
-    <t>符咒效果+1</t>
+    <t>消耗品-符咒效果+1</t>
   </si>
   <si>
     <t>精通药理</t>
   </si>
   <si>
-    <t>丹药效果+1</t>
-  </si>
-  <si>
-    <t>精通：————————</t>
-  </si>
-  <si>
-    <t>精通潜伏</t>
-  </si>
-  <si>
-    <t>潜伏率+5%</t>
-  </si>
-  <si>
-    <t>精通闪避</t>
-  </si>
-  <si>
-    <t>闪避率+5%</t>
-  </si>
-  <si>
-    <t>精通重击</t>
-  </si>
-  <si>
-    <t>精通格挡</t>
-  </si>
-  <si>
-    <t>格挡率+5%</t>
-  </si>
-  <si>
-    <t>精通侦察</t>
-  </si>
-  <si>
-    <t>侦察率+5%</t>
+    <t>消耗品-丹药效果+1</t>
+  </si>
+  <si>
+    <t>精通法术</t>
+  </si>
+  <si>
+    <t>技能-法术效果+1</t>
+  </si>
+  <si>
+    <t>精通召唤</t>
+  </si>
+  <si>
+    <t>召唤物生命+5，伤害+1</t>
+  </si>
+  <si>
+    <t>精通姿态</t>
+  </si>
+  <si>
+    <t>姿态增益效果+1</t>
+  </si>
+  <si>
+    <t>生活：————————</t>
+  </si>
+  <si>
+    <t>战地医生</t>
+  </si>
+  <si>
+    <t>扎营时，全体生命恢复+1</t>
+  </si>
+  <si>
+    <t>守夜人</t>
+  </si>
+  <si>
+    <t>不会被夜袭</t>
+  </si>
+  <si>
+    <t>交易专家</t>
+  </si>
+  <si>
+    <t>购买价格-10%</t>
+  </si>
+  <si>
+    <t>剥皮专家</t>
+  </si>
+  <si>
+    <t>击杀野兽时获得额外战利品【毛皮】</t>
+  </si>
+  <si>
+    <t>保养专家</t>
+  </si>
+  <si>
+    <t>躯壳、魂魄腐败速度-10%</t>
   </si>
   <si>
     <t>怪物特质：————————</t>
@@ -183,118 +474,6 @@
     <t>清明值攻击对其无效，不会传递【察觉】与【敌意】</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>数值</t>
-  </si>
-  <si>
-    <t>额外效果</t>
-  </si>
-  <si>
-    <t>锻炼契机</t>
-  </si>
-  <si>
-    <t>要求</t>
-  </si>
-  <si>
-    <t>短跑健将</t>
-  </si>
-  <si>
-    <t>基础移动速度</t>
-  </si>
-  <si>
-    <t>长跑健将</t>
-  </si>
-  <si>
-    <t>最大体力</t>
-  </si>
-  <si>
-    <t>异乡人</t>
-  </si>
-  <si>
-    <t>坚韧意志</t>
-  </si>
-  <si>
-    <t>心志</t>
-  </si>
-  <si>
-    <t>花花公子</t>
-  </si>
-  <si>
-    <t>魅惑判定难度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>花销大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>苦行僧</t>
-  </si>
-  <si>
-    <t>心志，体质</t>
-  </si>
-  <si>
-    <t>高级xx</t>
-  </si>
-  <si>
-    <t>抗寒专家</t>
-  </si>
-  <si>
-    <t>寒冷抗性</t>
-  </si>
-  <si>
-    <t>累计受到寒冷伤害大于50</t>
-  </si>
-  <si>
-    <t>抗热专家</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>累计受到火属性伤害大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <t>钢铁肠胃</t>
-  </si>
-  <si>
-    <t>因饮食造成的伤害减半</t>
-  </si>
-  <si>
     <t>血统：收集血肉，搭建祭坛，向自己献祭，你将成为妖魔，这是堕落，还是升华？</t>
   </si>
   <si>
@@ -352,6 +531,9 @@
     <t>占用san值</t>
   </si>
   <si>
+    <t>原生尸鬼</t>
+  </si>
+  <si>
     <t>险峻群山</t>
   </si>
   <si>
@@ -364,9 +546,6 @@
     <t>高原</t>
   </si>
   <si>
-    <t>体质+1</t>
-  </si>
-  <si>
     <t>平原</t>
   </si>
   <si>
@@ -433,10 +612,97 @@
     <t>你死时，只留下一声低低的呻吟，“早安，打工人”，</t>
   </si>
   <si>
-    <t>健康值：疾病（可由牧师、医师治愈）</t>
+    <t>疾病有触发条件，更换的脏器可能自带疾病，通过魔法卷轴奇遇自愈等方式治疗</t>
+  </si>
+  <si>
+    <t>失去脏器或失去魂魄，或更换后，部分疾病将直接消失</t>
+  </si>
+  <si>
+    <t>症状加深：症状等级增加相当于同时得了两个疾病</t>
+  </si>
+  <si>
+    <t>依赖脏器</t>
+  </si>
+  <si>
+    <t>依赖魂魄</t>
+  </si>
+  <si>
+    <t>精神分裂</t>
+  </si>
+  <si>
+    <t>造成的伤害翻倍 承受的伤害翻倍 冷却时间减半</t>
   </si>
   <si>
     <t>多动症</t>
+  </si>
+  <si>
+    <t>速度+3 理智-3</t>
+  </si>
+  <si>
+    <t>狂犬病</t>
+  </si>
+  <si>
+    <t>失误率+15% 伤害+10%</t>
+  </si>
+  <si>
+    <t>癫痫</t>
+  </si>
+  <si>
+    <t>失误率+10% 暴击率-10% 速度+2</t>
+  </si>
+  <si>
+    <t>贫血</t>
+  </si>
+  <si>
+    <t>体质-1</t>
+  </si>
+  <si>
+    <t>骨髓</t>
+  </si>
+  <si>
+    <t>血友病</t>
+  </si>
+  <si>
+    <t>流血buff效果+1</t>
+  </si>
+  <si>
+    <t>光敏症</t>
+  </si>
+  <si>
+    <t>光亮大于75时 伤害-10% 察觉-10%</t>
+  </si>
+  <si>
+    <t>感官</t>
+  </si>
+  <si>
+    <t>夜盲症</t>
+  </si>
+  <si>
+    <t>光亮小于75时 伤害-10% 察觉-10%</t>
+  </si>
+  <si>
+    <t>哮喘</t>
+  </si>
+  <si>
+    <t>速度-1</t>
+  </si>
+  <si>
+    <t>脏器-肺</t>
+  </si>
+  <si>
+    <t>骨折</t>
+  </si>
+  <si>
+    <t>肢体增益禁用</t>
+  </si>
+  <si>
+    <t>肢体</t>
+  </si>
+  <si>
+    <t>衰老</t>
+  </si>
+  <si>
+    <t>全属性-1</t>
   </si>
   <si>
     <t>宿敌：建立人物时可以消耗10点天赋值，选择1个宿敌，对其攻防增加，获得其完整图鉴信息。之后可以通过杀死5只，10只，50只等达成成就的方式来得到新的宿敌，以及加深宿敌等级。</t>
@@ -468,12 +734,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,41 +764,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +785,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -576,25 +837,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,23 +869,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,79 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +951,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +993,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,25 +1053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,37 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,17 +1109,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,16 +1158,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,24 +1188,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +1214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,137 +1226,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,19 +1372,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,550 +1729,954 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.4444444444444" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="3" max="3" width="68.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="7.66666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="C36" s="3"/>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="5" t="s">
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="5" t="s">
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="6" t="s">
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="5" t="s">
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="5" t="s">
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="6" t="s">
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:4">
+      <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="7">
         <v>1</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
+      <c r="D56" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5</v>
+      </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="9"/>
+      <c r="D58" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="7"/>
-      <c r="B60" s="9"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:4">
+      <c r="A66" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="3">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:4">
+      <c r="A68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:4">
+      <c r="A70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="7">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:4">
+      <c r="A71" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="7">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="7">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:4">
+      <c r="A73" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="7">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="D75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="D78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:2">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:4">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2029,22 +2687,144 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="47.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2066,21 +2846,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -2104,20 +2884,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2139,22 +2919,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2176,17 +2956,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2208,12 +2988,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2238,17 +3018,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -2364,17 +3144,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2386,10 +3166,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2399,77 +3179,85 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2492,17 +3280,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2510,10 +3298,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2521,42 +3309,42 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2579,36 +3367,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
   <si>
-    <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：难得——超凡——传奇</t>
+    <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：普通——出众——超凡——传奇</t>
   </si>
   <si>
     <t>为了让特质的选择更有策略性，可能需要做图鉴、以及预示了下几层地牢的敌人特征等情报</t>
@@ -734,10 +734,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -763,9 +763,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,17 +793,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,6 +814,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -821,14 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -837,24 +838,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,18 +861,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,7 +900,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,19 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,25 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,37 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,37 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +999,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1059,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,19 +1095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,22 +1113,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,11 +1133,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,18 +1166,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1206,6 +1195,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1214,10 +1214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,16 +1226,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,115 +1244,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1731,8 +1731,8 @@
   <sheetPr/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2222,7 +2222,6 @@
       <c r="B46" s="3">
         <v>3</v>
       </c>
-      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>75</v>
       </c>

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
-  <si>
-    <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：普通——出众——超凡——传奇</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
+  <si>
+    <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：轻微—明显—出众—超凡—传奇—半神</t>
+  </si>
+  <si>
+    <t>半神级别的特质很罕见</t>
+  </si>
+  <si>
+    <t>特质本身具有颜色  白-绿-蓝-紫-金-红</t>
   </si>
   <si>
     <t>为了让特质的选择更有策略性，可能需要做图鉴、以及预示了下几层地牢的敌人特征等情报</t>
@@ -39,15 +45,39 @@
     <t>稀有度</t>
   </si>
   <si>
+    <t>初始等级</t>
+  </si>
+  <si>
     <t>最大等级</t>
   </si>
   <si>
-    <t>生理：————————</t>
+    <t>每级增益</t>
+  </si>
+  <si>
+    <t>躯壳：————————</t>
+  </si>
+  <si>
+    <t>佝偻</t>
+  </si>
+  <si>
+    <t>轻微</t>
+  </si>
+  <si>
+    <t>明显</t>
+  </si>
+  <si>
+    <t>n*等级</t>
+  </si>
+  <si>
+    <t>体质-1 力量-1 闪避率+10%</t>
   </si>
   <si>
     <t>肥胖</t>
   </si>
   <si>
+    <t>传奇</t>
+  </si>
+  <si>
     <t>力量+1 体质-1</t>
   </si>
   <si>
@@ -75,37 +105,70 @@
     <t>体质+1</t>
   </si>
   <si>
+    <t>天生神力</t>
+  </si>
+  <si>
+    <t>出众</t>
+  </si>
+  <si>
+    <t>2*等级</t>
+  </si>
+  <si>
+    <t>力量+2</t>
+  </si>
+  <si>
+    <t>缩骨功</t>
+  </si>
+  <si>
+    <t>时间-等级</t>
+  </si>
+  <si>
+    <t>状态【困住】的持续时间-1</t>
+  </si>
+  <si>
+    <t>铁布衫</t>
+  </si>
+  <si>
+    <t>物理防御+1，不可升级</t>
+  </si>
+  <si>
+    <t>金钟罩</t>
+  </si>
+  <si>
+    <t>超凡</t>
+  </si>
+  <si>
     <t>生生不息</t>
   </si>
   <si>
-    <t>进入房间时，躯体的腐败速度减半</t>
+    <t>升级后为-50%</t>
+  </si>
+  <si>
+    <t>进入房间时，躯体的腐败速度-25%</t>
   </si>
   <si>
     <t>内循环</t>
   </si>
   <si>
+    <t>半神</t>
+  </si>
+  <si>
+    <t>回合-1 回血+1</t>
+  </si>
+  <si>
     <t>每3回合回血1</t>
   </si>
   <si>
     <t>外循环</t>
   </si>
   <si>
+    <t>回血+1</t>
+  </si>
+  <si>
     <t>击杀躯壳时回血1</t>
   </si>
   <si>
-    <t>缩骨功</t>
-  </si>
-  <si>
-    <t>状态【困住】的持续时间-1</t>
-  </si>
-  <si>
-    <t>铁布衫</t>
-  </si>
-  <si>
-    <t>物理防御+3，不可升级</t>
-  </si>
-  <si>
-    <t>精神：————————</t>
+    <t>魂魄：————————</t>
   </si>
   <si>
     <t>无痛觉</t>
@@ -734,9 +797,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -763,7 +826,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,8 +876,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,46 +901,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,13 +909,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,14 +931,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -884,15 +938,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,7 +955,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +978,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,175 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,26 +1172,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,25 +1203,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,17 +1226,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1245,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1214,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,133 +1289,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1729,22 +1792,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.4444444444444" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.66666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="81.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1762,920 +1827,1229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7">
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="E26" s="3"/>
+      <c r="F26" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="7">
         <v>4</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="E36" s="3"/>
+      <c r="F36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="7">
         <v>3</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="C38" s="7"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="7">
         <v>4</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="C39" s="7"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="7">
         <v>3</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
+      <c r="C40" s="7"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
         <v>5</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="C45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="C47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="5"/>
+      <c r="C48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="E50" s="3"/>
+      <c r="F50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:4">
+      <c r="E51" s="3"/>
+      <c r="F51" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B52" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:4">
+      <c r="E52" s="3"/>
+      <c r="F52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:5">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:4">
-      <c r="A56" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="A55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7">
         <v>1</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:4">
-      <c r="A57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="7">
+      <c r="E61" s="7"/>
+      <c r="F61" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="7">
         <v>2</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:4">
-      <c r="A58" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="7">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="7">
         <v>5</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:4">
-      <c r="A59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="7">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="7">
         <v>4</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:7">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:4">
-      <c r="A63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="3">
+      <c r="E67" s="3"/>
+      <c r="F67" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="3">
         <v>5</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:4">
-      <c r="A64" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="3">
+      <c r="E68" s="3"/>
+      <c r="F68" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:4">
-      <c r="A65" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="3">
+      <c r="E69" s="3"/>
+      <c r="F69" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="3">
         <v>5</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:4">
-      <c r="A66" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="3">
+      <c r="E70" s="3"/>
+      <c r="F70" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:4">
-      <c r="A67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="3">
         <v>5</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:4">
-      <c r="A68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="7">
+      <c r="E72" s="3"/>
+      <c r="F72" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="A73" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="7">
         <v>2</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:4">
-      <c r="A69" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="7">
+      <c r="C73" s="7"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="A74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="7">
         <v>2</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:4">
-      <c r="A70" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="7">
+      <c r="C74" s="7"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="A75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="7">
         <v>2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:4">
-      <c r="A71" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="E75" s="3"/>
+      <c r="F75" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:6">
+      <c r="A76" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="7">
         <v>3</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="3">
         <v>1</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:4">
-      <c r="A72" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="7">
+      <c r="E76" s="3"/>
+      <c r="F76" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:6">
+      <c r="A77" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="7">
         <v>4</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="3">
         <v>1</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="7">
+      <c r="E77" s="3"/>
+      <c r="F77" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="A78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="7">
         <v>5</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:4">
-      <c r="A74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="D74" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="D75" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:4">
-      <c r="A76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="D76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:4">
-      <c r="A77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="D77" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="D78" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="2:2">
+      <c r="C78" s="7"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B79" s="3"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>133</v>
+      <c r="C79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B80" s="3"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:4">
+      <c r="C80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="3">
+        <v>148</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:5">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="3">
         <v>2</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:4">
-      <c r="A82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="3">
+      <c r="C86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="3">
         <v>4</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:4">
-      <c r="A83" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="3">
+      <c r="C87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="3">
         <v>3</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:4">
-      <c r="A84" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="3">
+      <c r="C88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="3">
         <v>3</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:4">
-      <c r="A85" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="3">
+      <c r="C89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="2:4">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:4">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:6">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2699,131 +3073,131 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2845,21 +3219,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -2883,20 +3257,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2918,22 +3292,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2955,17 +3329,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2987,12 +3361,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3017,17 +3391,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -3143,17 +3517,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3178,31 +3552,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -3210,18 +3584,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -3230,18 +3604,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -3250,13 +3624,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3279,17 +3653,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3297,10 +3671,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3308,42 +3682,42 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3366,36 +3740,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="特质" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="258">
   <si>
     <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：轻微—明显—出众—超凡—传奇—半神</t>
   </si>
@@ -747,25 +747,34 @@
     <t>哮喘</t>
   </si>
   <si>
+    <t>进入战斗状态后每攻击一次，速度-1 脱战恢复</t>
+  </si>
+  <si>
+    <t>脏器-肺</t>
+  </si>
+  <si>
+    <t>骨折</t>
+  </si>
+  <si>
+    <t>肢体增益禁用</t>
+  </si>
+  <si>
+    <t>肢体</t>
+  </si>
+  <si>
+    <t>未老先衰</t>
+  </si>
+  <si>
+    <t>全属性-1</t>
+  </si>
+  <si>
+    <t>白化病</t>
+  </si>
+  <si>
+    <t>跛子</t>
+  </si>
+  <si>
     <t>速度-1</t>
-  </si>
-  <si>
-    <t>脏器-肺</t>
-  </si>
-  <si>
-    <t>骨折</t>
-  </si>
-  <si>
-    <t>肢体增益禁用</t>
-  </si>
-  <si>
-    <t>肢体</t>
-  </si>
-  <si>
-    <t>衰老</t>
-  </si>
-  <si>
-    <t>全属性-1</t>
   </si>
   <si>
     <t>宿敌：建立人物时可以消耗10点天赋值，选择1个宿敌，对其攻防增加，获得其完整图鉴信息。之后可以通过杀死5只，10只，50只等达成成就的方式来得到新的宿敌，以及加深宿敌等级。</t>
@@ -797,10 +806,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -826,15 +835,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,25 +855,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,9 +885,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,10 +900,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -911,6 +912,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -931,16 +940,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +964,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +972,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,97 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1005,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,13 +1077,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,13 +1113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,19 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,6 +1165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1169,21 +1178,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1235,26 +1229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1269,6 +1243,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1277,10 +1286,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,133 +1298,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1794,7 +1803,7 @@
   <sheetPr/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3060,15 +3069,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
     <col min="2" max="2" width="47.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3086,11 +3097,14 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:5">
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>219</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3126,69 +3140,69 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>230</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>233</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>235</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>238</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>239</v>
       </c>
       <c r="B22" t="s">
         <v>240</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>242</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3198,6 +3212,19 @@
       </c>
       <c r="B26" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3219,21 +3246,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -3257,20 +3284,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="特质" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="263">
   <si>
     <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：轻微—明显—出众—超凡—传奇—半神</t>
   </si>
@@ -54,6 +54,12 @@
     <t>每级增益</t>
   </si>
   <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
     <t>躯壳：————————</t>
   </si>
   <si>
@@ -63,33 +69,36 @@
     <t>轻微</t>
   </si>
   <si>
+    <t>出众</t>
+  </si>
+  <si>
+    <t>n*等级</t>
+  </si>
+  <si>
+    <t>体质-1 力量-1 闪避率+10%</t>
+  </si>
+  <si>
+    <t>肥胖</t>
+  </si>
+  <si>
+    <t>传奇</t>
+  </si>
+  <si>
+    <t>力量+1 体质-1</t>
+  </si>
+  <si>
+    <t>秃头</t>
+  </si>
+  <si>
+    <t>暴击率+5%</t>
+  </si>
+  <si>
+    <t>强健</t>
+  </si>
+  <si>
     <t>明显</t>
   </si>
   <si>
-    <t>n*等级</t>
-  </si>
-  <si>
-    <t>体质-1 力量-1 闪避率+10%</t>
-  </si>
-  <si>
-    <t>肥胖</t>
-  </si>
-  <si>
-    <t>传奇</t>
-  </si>
-  <si>
-    <t>力量+1 体质-1</t>
-  </si>
-  <si>
-    <t>秃头</t>
-  </si>
-  <si>
-    <t>暴击率+5%</t>
-  </si>
-  <si>
-    <t>强健</t>
-  </si>
-  <si>
     <t>力量+1 体质+1</t>
   </si>
   <si>
@@ -108,9 +117,6 @@
     <t>天生神力</t>
   </si>
   <si>
-    <t>出众</t>
-  </si>
-  <si>
     <t>2*等级</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>时间-等级</t>
   </si>
   <si>
+    <t>秘籍</t>
+  </si>
+  <si>
     <t>状态【困住】的持续时间-1</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>魂魄出窍</t>
   </si>
   <si>
+    <t>剧情</t>
+  </si>
+  <si>
     <t>阴影领域</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
   </si>
   <si>
     <t>敌人离开或来到面前时，有几率额外攻击一次，最大5级，每级10%</t>
+  </si>
+  <si>
+    <t>借机攻击在有些游戏里是必然触发的，然后强化可触发次数</t>
   </si>
   <si>
     <t>顺势斩</t>
@@ -806,10 +821,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -848,6 +863,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -855,18 +885,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,26 +908,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -940,6 +948,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -947,14 +963,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -970,9 +986,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,7 +1002,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1074,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,19 +1128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,55 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,19 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,55 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,17 +1196,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,6 +1227,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,15 +1279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1267,17 +1293,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1286,10 +1301,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,133 +1313,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,24 +1816,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.4444444444444" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.66666666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.1111111111111" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.2222222222222" style="3" customWidth="1"/>
-    <col min="6" max="6" width="81.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.4444444444444" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="6" max="6" width="5.66666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="81.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1846,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1859,298 +1875,326 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7">
         <v>4</v>
@@ -2158,13 +2202,14 @@
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="F23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -2172,13 +2217,14 @@
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
@@ -2186,13 +2232,14 @@
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -2202,13 +2249,14 @@
         <v>5</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="F26" s="3"/>
+      <c r="G26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
@@ -2216,13 +2264,14 @@
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="F27" s="3"/>
+      <c r="G27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -2230,13 +2279,14 @@
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F28" s="3"/>
+      <c r="G28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7">
         <v>4</v>
@@ -2244,13 +2294,14 @@
       <c r="C29" s="7"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -2258,23 +2309,25 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="F30" s="3"/>
+      <c r="G30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -2282,11 +2335,14 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="F32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -2294,31 +2350,34 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2326,25 +2385,27 @@
         <v>5</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F36" s="3"/>
+      <c r="G36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A37" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F37" s="3"/>
+      <c r="G37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B38" s="7">
         <v>3</v>
@@ -2352,13 +2413,17 @@
       <c r="C38" s="7"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F38" s="3"/>
+      <c r="G38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A39" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B39" s="7">
         <v>4</v>
@@ -2366,13 +2431,14 @@
       <c r="C39" s="7"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F39" s="3"/>
+      <c r="G39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A40" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7">
         <v>3</v>
@@ -2380,13 +2446,14 @@
       <c r="C40" s="7"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F40" s="3"/>
+      <c r="G40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B41" s="7">
         <v>5</v>
@@ -2394,31 +2461,34 @@
       <c r="C41" s="7"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F41" s="3"/>
+      <c r="G41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2426,145 +2496,157 @@
         <v>5</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="F44" s="3"/>
+      <c r="G44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="C45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="F45" s="3"/>
+      <c r="G45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="C46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="F46" s="3"/>
+      <c r="G46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
       <c r="C47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="F47" s="3"/>
+      <c r="G47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="C48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="F48" s="3"/>
+      <c r="G48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
       </c>
       <c r="C49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="F49" s="3"/>
+      <c r="G49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
       </c>
       <c r="C50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="F50" s="3"/>
+      <c r="G50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
       <c r="C51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="F51" s="3"/>
+      <c r="G51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
       </c>
       <c r="C52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="F52" s="3"/>
+      <c r="G52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="C53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="2:5">
+      <c r="F53" s="3"/>
+      <c r="G53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:6">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="F55" s="3"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -2572,13 +2654,14 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="F56" s="3"/>
+      <c r="G56" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3">
         <v>5</v>
@@ -2586,13 +2669,14 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="F57" s="3"/>
+      <c r="G57" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
@@ -2600,37 +2684,40 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="F58" s="3"/>
+      <c r="G58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="F59" s="3"/>
+      <c r="G59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="F60" s="3"/>
+      <c r="G60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2638,13 +2725,14 @@
         <v>1</v>
       </c>
       <c r="E61" s="7"/>
-      <c r="F61" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="F61" s="7"/>
+      <c r="G61" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B62" s="7">
         <v>2</v>
@@ -2652,13 +2740,14 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="F62" s="7"/>
+      <c r="G62" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B63" s="7">
         <v>5</v>
@@ -2666,13 +2755,14 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="F63" s="7"/>
+      <c r="G63" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B64" s="7">
         <v>4</v>
@@ -2680,33 +2770,36 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:7">
+      <c r="F64" s="7"/>
+      <c r="G64" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:8">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:7">
+      <c r="F65" s="7"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:8">
       <c r="A66" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="F66" s="3"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2714,13 +2807,14 @@
         <v>1</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="F67" s="3"/>
+      <c r="G67" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2728,13 +2822,14 @@
         <v>5</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="F68" s="3"/>
+      <c r="G68" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2742,13 +2837,14 @@
         <v>5</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="F69" s="3"/>
+      <c r="G69" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2756,13 +2852,14 @@
         <v>5</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="F70" s="3"/>
+      <c r="G70" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:7">
       <c r="A71" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2770,13 +2867,14 @@
         <v>5</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="F71" s="3"/>
+      <c r="G71" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:7">
       <c r="A72" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2784,13 +2882,14 @@
         <v>5</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="F72" s="3"/>
+      <c r="G72" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:7">
       <c r="A73" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B73" s="7">
         <v>2</v>
@@ -2798,13 +2897,14 @@
       <c r="C73" s="7"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="F73" s="3"/>
+      <c r="G73" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B74" s="7">
         <v>2</v>
@@ -2812,13 +2912,14 @@
       <c r="C74" s="7"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="F74" s="3"/>
+      <c r="G74" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B75" s="7">
         <v>2</v>
@@ -2828,13 +2929,14 @@
         <v>10</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:6">
+      <c r="F75" s="3"/>
+      <c r="G75" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:7">
       <c r="A76" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B76" s="7">
         <v>3</v>
@@ -2844,13 +2946,14 @@
         <v>1</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:6">
+      <c r="F76" s="3"/>
+      <c r="G76" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:7">
       <c r="A77" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
@@ -2860,13 +2963,14 @@
         <v>1</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="F77" s="3"/>
+      <c r="G77" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B78" s="7">
         <v>5</v>
@@ -2874,191 +2978,209 @@
       <c r="C78" s="7"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="F78" s="3"/>
+      <c r="G78" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:6">
+      <c r="F79" s="3"/>
+      <c r="G79" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:6">
+      <c r="F80" s="3"/>
+      <c r="G80" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:6">
+      <c r="F81" s="3"/>
+      <c r="G81" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:6">
+      <c r="F82" s="3"/>
+      <c r="G82" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="2:5">
+      <c r="F83" s="3"/>
+      <c r="G83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:6">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:5">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:6">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
       </c>
       <c r="C86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="F86" s="3"/>
+      <c r="G86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
       </c>
       <c r="C87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:6">
+      <c r="F87" s="3"/>
+      <c r="G87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
       </c>
       <c r="C88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:6">
+      <c r="F88" s="3"/>
+      <c r="G88" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
       </c>
       <c r="C89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="F89" s="3"/>
+      <c r="G89" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
       </c>
       <c r="C90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="2:6">
+      <c r="F90" s="3"/>
+      <c r="G90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:7">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F91" s="3"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:6">
+      <c r="F92" s="3"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="F93" s="3"/>
+      <c r="G93" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:6">
+      <c r="F94" s="3"/>
+      <c r="G94" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3071,7 +3193,7 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -3084,17 +3206,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -3102,129 +3224,129 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3246,21 +3368,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -3284,20 +3406,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3319,22 +3441,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3356,17 +3478,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3388,12 +3510,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3418,17 +3540,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -3544,17 +3666,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3579,31 +3701,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -3611,18 +3733,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -3631,18 +3753,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -3651,13 +3773,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3680,17 +3802,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3698,10 +3820,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3709,42 +3831,42 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3767,36 +3889,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/Assets/Other/_特质.xlsx
+++ b/Assets/Other/_特质.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="853" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="特质" sheetId="5" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="疾病" sheetId="10" r:id="rId10"/>
     <sheet name="其他种族交互" sheetId="11" r:id="rId11"/>
     <sheet name="秘籍" sheetId="12" r:id="rId12"/>
+    <sheet name="爱好" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
   <si>
     <t>特质本身可以升级，有的特质非常稀有，可能刚获得时就是超凡，但常见特质也可以升为传奇：轻微—明显—出众—超凡—传奇—半神</t>
   </si>
@@ -814,6 +815,18 @@
   </si>
   <si>
     <t>使用武器时速度+1，伤害+1</t>
+  </si>
+  <si>
+    <t>嗜酒</t>
+  </si>
+  <si>
+    <t>色欲</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>在举行指定解压活动时可以获得，同时，比如嗜酒可以使酒的好处加倍</t>
   </si>
 </sst>
 </file>
@@ -821,10 +834,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -850,9 +863,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,33 +892,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,9 +929,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,18 +952,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,6 +972,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -963,31 +998,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,19 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,19 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,13 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,19 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1111,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,55 +1177,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,22 +1209,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,17 +1239,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,6 +1270,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,21 +1306,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1301,10 +1314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1313,133 +1326,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1818,7 +1831,7 @@
   <sheetPr/>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +1903,6 @@
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -1909,7 +1921,6 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1941,6 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1961,6 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +1981,6 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +2001,6 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +2021,6 @@
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2035,7 +2041,6 @@
       <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3428,6 +3433,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
